--- a/src/make_cv/files/Awards/student awards data.xlsx
+++ b/src/make_cv/files/Awards/student awards data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Awards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF93AE5-6565-D842-96DA-166ED0C0B747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272B4F56-5A51-E54C-9274-40ED9F0F336A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17300" activeTab="1" xr2:uid="{E23A13CD-8CAA-9E4B-8575-0E885655E12D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Title</t>
   </si>
@@ -69,12 +69,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t xml:space="preserve">APERG Fellowship </t>
-  </si>
-  <si>
-    <t>AIAA Region 1-NE Student Conference, team competition winners</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -85,12 +79,6 @@
   </si>
   <si>
     <t>Type:</t>
-  </si>
-  <si>
-    <t>A. Student</t>
-  </si>
-  <si>
-    <t>J. Schmoe,  J. Doe</t>
   </si>
 </sst>
 </file>
@@ -629,15 +617,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -671,7 +659,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,47 +689,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="3">
-        <v>25000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>2010</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">

--- a/src/make_cv/files/Awards/student awards data.xlsx
+++ b/src/make_cv/files/Awards/student awards data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Awards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272B4F56-5A51-E54C-9274-40ED9F0F336A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C96E10-793E-884C-BC16-56259E54C1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17300" activeTab="1" xr2:uid="{E23A13CD-8CAA-9E4B-8575-0E885655E12D}"/>
   </bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,6 +699,30 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F4">
     <sortCondition ref="F2:F4"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{B4F88CD2-30CE-1146-8280-8336B9126CC4}">
+      <formula1>1900</formula1>
+      <formula2>2100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89FC1E52-9184-AA48-A7C6-91F65DF202F0}">
+          <x14:formula1>
+            <xm:f>Notes!$A$7:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C20C2FCF-ECA8-4B45-A1CF-076CF3013C84}">
+          <x14:formula1>
+            <xm:f>Notes!$B$7:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/make_cv/files/Awards/student awards data.xlsx
+++ b/src/make_cv/files/Awards/student awards data.xlsx
@@ -1,120 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Awards/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C96E10-793E-884C-BC16-56259E54C1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17300" activeTab="1" xr2:uid="{E23A13CD-8CAA-9E4B-8575-0E885655E12D}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17300" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Notes" sheetId="3" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Notes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>This sheet is to keep track of awards</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Undergraduate</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Conference</t>
-  </si>
-  <si>
-    <t>Fellowship</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Make an entry in data for every student award</t>
-  </si>
-  <si>
-    <t>Categories:</t>
-  </si>
-  <si>
-    <t>Type:</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,11 +64,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,75 +96,75 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1" tint="0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1" tint="0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <fgColor theme="0" tint="-0.1499984740745262"/>
+          <bgColor theme="0" tint="-0.1499984740745262"/>
         </patternFill>
       </fill>
       <border>
         <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.3499862666707358"/>
         </left>
         <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.3499862666707358"/>
         </right>
         <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.3499862666707358"/>
         </top>
         <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.3499862666707358"/>
         </bottom>
         <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.3499862666707358"/>
         </vertical>
         <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.3499862666707358"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <fgColor theme="0" tint="-0.1499984740745262"/>
+          <bgColor theme="0" tint="-0.1499984740745262"/>
         </patternFill>
       </fill>
       <border>
         <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.3499862666707358"/>
         </top>
         <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.3499862666707358"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <fill>
@@ -253,7 +184,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -269,7 +200,7 @@
       <font>
         <color theme="1"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left/>
         <right/>
         <top/>
@@ -280,7 +211,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="PivotStyleLight1 2" table="0" count="11" xr9:uid="{84534529-D9EB-7A4D-9923-32918898A204}">
+    <tableStyle name="PivotStyleLight1 2" table="0" count="11">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
@@ -294,14 +225,74 @@
       <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -601,52 +592,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB97C3C-595B-174A-9C7A-49ACB86D6173}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>This sheet is to keep track of awards</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Make an entry in data for every student award</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Categories:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Type:</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Conference</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Undergraduate</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Fellowship</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Graduate</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -655,74 +668,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD645283-76AC-0143-BE6B-3BED9EC12DE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="49.5" customWidth="1"/>
-    <col min="2" max="2" width="61.1640625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col width="49.5" customWidth="1" min="1" max="1"/>
+    <col width="61.1640625" customWidth="1" min="2" max="2"/>
+    <col width="7.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="11.1640625" customWidth="1" min="4" max="4"/>
+    <col width="14.5" customWidth="1" min="5" max="5"/>
+    <col width="8.1640625" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
+    <row r="10">
+      <c r="B10" s="4" t="n"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F4">
-    <sortCondition ref="F2:F4"/>
-  </sortState>
-  <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{B4F88CD2-30CE-1146-8280-8336B9126CC4}">
+  <dataValidations count="4">
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>Notes!$A$7:$A$9</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>Notes!$B$7:$B$8</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="whole" operator="between">
       <formula1>1900</formula1>
       <formula2>2100</formula2>
     </dataValidation>
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="decimal" operator="greaterThan">
+      <formula1>0</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89FC1E52-9184-AA48-A7C6-91F65DF202F0}">
-          <x14:formula1>
-            <xm:f>Notes!$A$7:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C20C2FCF-ECA8-4B45-A1CF-076CF3013C84}">
-          <x14:formula1>
-            <xm:f>Notes!$B$7:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>